--- a/biology/Botanique/Victoria_Park_(Swinton)/Victoria_Park_(Swinton).xlsx
+++ b/biology/Botanique/Victoria_Park_(Swinton)/Victoria_Park_(Swinton).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victoria Park est un parc situé à Swinton, dans le Grand Manchester. Situé sur Manchester Road (A6), Swinton, il a ouvert ses portes en tant que parc public en 1897. 
- Victoria Park est composé des terrains de Swinton Old Hall; la salle elle-même a été démolie en 1993[1]. Disposant de courts de tennis et de deux terrains de boules, Victoria Park abrite un Kiosque à musique Victorien classé Grade II construit pour célébrer le 60e anniversaire du règne de la reine Victoria; le kiosque à musique étant construit autour de 1897[1],[2]. 
-Swinton et Pendlebury reçurent leur charte d'incorporation en tant que Borough municipal d'Edward Stanley, 18e comte de Derby, lors d'une cérémonie à Victoria Park le 29 septembre 1934[3],[4].
-Victoria Park a reçu trois Green Flag Awards[2]. Le programme Green Flag est une norme nationale pour les parcs publics et les espaces verts qui vise à élever les normes dans l'ensemble du Royaume-Uni[5]. Ce prix met le Victoria Park aux côtés de la jetée de Brighton, du zoo de Londres, d'Alton Towers et du Norfolk Broads[6].
+ Victoria Park est composé des terrains de Swinton Old Hall; la salle elle-même a été démolie en 1993. Disposant de courts de tennis et de deux terrains de boules, Victoria Park abrite un Kiosque à musique Victorien classé Grade II construit pour célébrer le 60e anniversaire du règne de la reine Victoria; le kiosque à musique étant construit autour de 1897,. 
+Swinton et Pendlebury reçurent leur charte d'incorporation en tant que Borough municipal d'Edward Stanley, 18e comte de Derby, lors d'une cérémonie à Victoria Park le 29 septembre 1934,.
+Victoria Park a reçu trois Green Flag Awards. Le programme Green Flag est une norme nationale pour les parcs publics et les espaces verts qui vise à élever les normes dans l'ensemble du Royaume-Uni. Ce prix met le Victoria Park aux côtés de la jetée de Brighton, du zoo de Londres, d'Alton Towers et du Norfolk Broads.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Victoria Park, Swinton » (voir la liste des auteurs).
 ↑ a et b « Salford City Council Website » (consulté le 2 février 2010)
